--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_29.qasm_rb2_archsize6_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_29.qasm_rb2_archsize6_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N897"/>
+  <dimension ref="A1:N898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.136407136917114</v>
+        <v>0.0009827613830566406</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03043317794799805</v>
+        <v>0.0006511211395263672</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03104591369628906</v>
+        <v>0.04242110252380371</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 1), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (3, 3), (1, 3), (0, 5), (4, 2), (2, 3), (2, 2), (2, 0), (1, 4), (0, 4), (3, 0), (3, 5), (2, 5), (5, 1), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[4, 0], [3, 1], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [3, 3], [1, 3], [0, 5], [4, 2], [2, 3], [2, 2], [2, 0], [1, 4], [0, 4], [3, 0], [3, 5], [2, 5], [5, 1], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 4), (4, 1), (1, 5), (4, 4), (1, 4), (2, 4), (0, 5), (3, 3), (0, 4), (2, 3), (4, 2), (0, 0), (4, 3), (5, 4), (2, 5), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[4, 0], [3, 4], [4, 1], [1, 5], [4, 4], [1, 4], [2, 4], [0, 5], [3, 3], [0, 4], [2, 3], [4, 2], [0, 0], [4, 3], [5, 4], [2, 5], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 4), (4, 1), (3, 2), (4, 4), (2, 5), (3, 3), (3, 5), (3, 1), (4, 2), (4, 3), (5, 1), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4)]</t>
+          <t>[[4, 0], [3, 4], [4, 1], [3, 2], [4, 4], [2, 5], [3, 3], [3, 5], [3, 1], [4, 2], [4, 3], [5, 1], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4]]</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 1), (4, 1), (3, 2), (4, 4), (4, 5), (4, 2), (5, 5), (3, 3), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5)]</t>
+          <t>[[4, 0], [3, 1], [4, 1], [3, 2], [4, 4], [4, 5], [4, 2], [5, 5], [3, 3], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5]]</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 1), (3, 0), (4, 2), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3)]</t>
+          <t>[[4, 0], [3, 1], [3, 0], [4, 2], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3]]</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 1), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0)]</t>
+          <t>[[4, 0], [3, 1], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4276,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>[(4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0), (3, 1), (4, 0)]</t>
+          <t>[[4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>[(4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 2), (3, 1), (3, 0), (4, 0), (4, 1)]</t>
+          <t>[[4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 2], [3, 1], [3, 0], [4, 0], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>[(2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (3, 0), (3, 1), (4, 3), (4, 2), (3, 2), (4, 0), (4, 1), (5, 0), (5, 1)]</t>
+          <t>[[2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [3, 0], [3, 1], [4, 3], [4, 2], [3, 2], [4, 0], [4, 1], [5, 0], [5, 1]]</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>[(5, 3), (5, 2), (4, 1), (3, 1), (2, 2), (1, 2), (0, 1), (0, 2), (1, 1), (2, 1), (3, 2), (4, 2), (5, 1), (4, 3), (5, 4), (3, 3), (4, 0), (2, 5), (3, 5), (0, 0), (3, 0), (2, 4), (2, 3), (4, 4), (1, 3), (2, 0), (0, 3), (5, 0), (5, 5)]</t>
+          <t>[[5, 3], [5, 2], [4, 1], [3, 1], [2, 2], [1, 2], [0, 1], [0, 2], [1, 1], [2, 1], [3, 2], [4, 2], [5, 1], [4, 3], [5, 4], [3, 3], [4, 0], [2, 5], [3, 5], [0, 0], [3, 0], [2, 4], [2, 3], [4, 4], [1, 3], [2, 0], [0, 3], [5, 0], [5, 5]]</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (2, 0), (2, 3), (1, 5), (0, 4), (4, 3), (5, 4), (3, 3), (0, 5), (2, 5), (1, 4), (0, 0), (3, 0), (2, 4), (3, 2), (4, 4), (3, 1), (4, 0), (3, 4), (5, 0), (5, 5)]</t>
+          <t>[[2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [2, 0], [2, 3], [1, 5], [0, 4], [4, 3], [5, 4], [3, 3], [0, 5], [2, 5], [1, 4], [0, 0], [3, 0], [2, 4], [3, 2], [4, 4], [3, 1], [4, 0], [3, 4], [5, 0], [5, 5]]</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (0, 0), (1, 2), (1, 0), (1, 5), (0, 5), (3, 0), (3, 1), (2, 3), (2, 5), (3, 3), (4, 3), (5, 4), (3, 2), (3, 4), (3, 5), (4, 4), (4, 0), (4, 1), (1, 4), (2, 4), (2, 1), (1, 3), (2, 0), (0, 3), (0, 4), (2, 2)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [0, 0], [1, 2], [1, 0], [1, 5], [0, 5], [3, 0], [3, 1], [2, 3], [2, 5], [3, 3], [4, 3], [5, 4], [3, 2], [3, 4], [3, 5], [4, 4], [4, 0], [4, 1], [1, 4], [2, 4], [2, 1], [1, 3], [2, 0], [0, 3], [0, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -7994,110 +7994,120 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B893" t="n">
-        <v>132</v>
+        <v>0.9916343421453592</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B894" t="n">
-        <v>739</v>
+        <v>132</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B895" t="n">
-        <v>12</v>
+        <v>739</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B896" t="n">
-        <v>2.265168905258179</v>
+        <v>12</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B897" t="n">
+        <v>0.212745189666748</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B897" t="inlineStr">
+      <c r="B898" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C897" t="inlineStr">
+      <c r="C898" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D897" t="inlineStr">
+      <c r="D898" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E897" t="inlineStr">
+      <c r="E898" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F897" t="inlineStr">
+      <c r="F898" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G897" t="inlineStr">
+      <c r="G898" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
+      <c r="H898" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I897" t="inlineStr">
+      <c r="I898" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J897" t="inlineStr">
+      <c r="J898" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K897" t="inlineStr">
+      <c r="K898" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L897" t="inlineStr">
+      <c r="L898" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M897" t="inlineStr">
+      <c r="M898" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N897" t="inlineStr">
+      <c r="N898" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_29.qasm_rb2_archsize6_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_29.qasm_rb2_archsize6_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N898"/>
+  <dimension ref="A1:N937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0009827613830566406</v>
+        <v>0.002050161361694336</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0006511211395263672</v>
+        <v>0.001132965087890625</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04242110252380371</v>
+        <v>0.08505797386169434</v>
       </c>
     </row>
     <row r="8">
@@ -1630,11 +1630,6 @@
           <t>[27, 14]</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>[22, 18]</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -1691,11 +1686,6 @@
           <t>[27, 14]</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>[22, 18]</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -1714,35 +1704,40 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>[23, 17]</t>
+          <t>[22, 18]</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>[27, 13]</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>[24, 16]</t>
+          <t>[23, 17]</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>[25, 15]</t>
+          <t>[24, 16]</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>[26, 14]</t>
+          <t>[25, 15]</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>[27, 13]</t>
+          <t>[26, 14]</t>
         </is>
       </c>
     </row>
@@ -1763,35 +1758,40 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>[23, 17]</t>
+          <t>[22, 18]</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>[27, 13]</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>[24, 16]</t>
+          <t>[23, 17]</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>[25, 15]</t>
+          <t>[24, 16]</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>[26, 14]</t>
+          <t>[25, 15]</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>[27, 13]</t>
+          <t>[26, 14]</t>
         </is>
       </c>
     </row>
@@ -1981,11 +1981,6 @@
           <t>[22, 17]</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>[28, 11]</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -2021,11 +2016,6 @@
           <t>[27, 12]</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>[21, 17]</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -2035,7 +2025,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[27, 11]</t>
+          <t>[28, 11]</t>
         </is>
       </c>
     </row>
@@ -2087,11 +2077,6 @@
           <t>[27, 12]</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>[21, 17]</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -2103,288 +2088,278 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>[22, 16]</t>
+          <t>[21, 17]</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>[23, 15]</t>
+          <t>[22, 16]</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>[24, 14]</t>
+          <t>[23, 15]</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>[25, 13]</t>
+          <t>[24, 14]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>[26, 12]</t>
+          <t>[25, 13]</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>[28, 10]</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>[20, 17]</t>
+          <t>[26, 12]</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>[20, 18]</t>
+          <t>[27, 11]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>[22, 16]</t>
+          <t>[28, 10]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>[23, 15]</t>
+          <t>[20, 18]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>[24, 14]</t>
+          <t>[21, 17]</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>[25, 13]</t>
+          <t>[22, 16]</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>[26, 12]</t>
+          <t>[23, 15]</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>[27, 11]</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>[20, 17]</t>
+          <t>[24, 14]</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>[28, 10]</t>
+          <t>[25, 13]</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>[19, 18]</t>
+          <t>[26, 12]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>[21, 16]</t>
+          <t>[27, 11]</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>[22, 15]</t>
+          <t>[28, 10]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>[23, 14]</t>
+          <t>[19, 18]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>[24, 13]</t>
+          <t>[20, 17]</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>[27, 10]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>[25, 12]</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>[20, 16]</t>
+          <t>[21, 16]</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>[26, 11]</t>
+          <t>[22, 15]</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>[27, 10]</t>
+          <t>[23, 14]</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>[28, 9]</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>[19, 17]</t>
+          <t>[24, 13]</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>[19, 18]</t>
+          <t>[25, 12]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>[21, 16]</t>
+          <t>[26, 11]</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>[22, 15]</t>
+          <t>[28, 9]</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>[23, 14]</t>
+          <t>[19, 18]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>[24, 13]</t>
+          <t>[20, 17]</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>[27, 10]</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>[25, 12]</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>[20, 16]</t>
+          <t>[21, 16]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>[26, 11]</t>
+          <t>[22, 15]</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>[27, 10]</t>
+          <t>[23, 14]</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>[28, 9]</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>[19, 17]</t>
+          <t>[24, 13]</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>[21, 15]</t>
+          <t>[25, 12]</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>[22, 14]</t>
+          <t>[26, 11]</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>[23, 13]</t>
+          <t>[28, 9]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>[24, 12]</t>
+          <t>[19, 17]</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>[27, 9]</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
+          <t>[20, 16]</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
           <t>[25, 11]</t>
         </is>
       </c>
@@ -2392,55 +2367,65 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>[26, 10]</t>
+          <t>[21, 15]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>[27, 9]</t>
+          <t>[22, 14]</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>[28, 8]</t>
+          <t>[23, 13]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>[21, 15]</t>
+          <t>[24, 12]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>[22, 14]</t>
+          <t>[26, 10]</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>[23, 13]</t>
+          <t>[28, 8]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>[24, 12]</t>
+          <t>[19, 17]</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>[27, 9]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
+          <t>[20, 16]</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
           <t>[25, 11]</t>
         </is>
       </c>
@@ -2448,572 +2433,522 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>[26, 10]</t>
+          <t>[21, 15]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>[27, 9]</t>
+          <t>[22, 14]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>[28, 8]</t>
+          <t>[23, 13]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>[18, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>[13, [1, 3], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>[7, [5, 5], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>[15, [1, 2], [1, 0]]</t>
+          <t>[24, 12]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>[20, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>[12, [0, 5], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>[3, [3, 2], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>[28, [3, 5], [4, 3]]</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>[27, [2, 5], [3, 3]]</t>
+          <t>[26, 10]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>[16, [2, 0], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>[10, [2, 4], [0, 5]]</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>[6, [4, 2], [4, 4]]</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>[22, [2, 1], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>[9, [3, 4], [1, 5]]</t>
+          <t>[28, 8]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>[25, [1, 4], [2, 5]]</t>
+          <t>[18, [0, 2], [0, 0]]</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[21, [1, 1], [2, 2]]</t>
+          <t>[13, [1, 3], [1, 2]]</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>[24, [0, 3], [0, 4]]</t>
+          <t>[7, [5, 5], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>[15, [1, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>[4, [4, 4], [4, 1]]</t>
+          <t>[20, [0, 0], [2, 1]]</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[14, [2, 3], [2, 0]]</t>
+          <t>[12, [0, 5], [2, 3]]</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>[11, [1, 5], [1, 3]]</t>
+          <t>[3, [3, 2], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>[28, [3, 5], [4, 3]]</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>[27, [2, 5], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>[26, [0, 4], [3, 5]]</t>
+          <t>[16, [2, 0], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>[10, [2, 4], [0, 5]]</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>[6, [4, 2], [4, 4]]</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>[22, [2, 1], [0, 3]]</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>[9, [3, 4], [1, 5]]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>[17, [1, 0], [0, 1]]</t>
+          <t>[25, [1, 4], [2, 5]]</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[5, [4, 5], [3, 2]]</t>
+          <t>[21, [1, 1], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>[24, [0, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>[23, [2, 2], [1, 4]]</t>
+          <t>[4, [4, 4], [4, 1]]</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>[2, [4, 1], [3, 0]]</t>
+          <t>[14, [2, 3], [2, 0]]</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>[11, [1, 5], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>[8, [3, 3], [2, 4]]</t>
+          <t>[26, [0, 4], [3, 5]]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>[19, [0, 1], [1, 1]]</t>
+          <t>[17, [1, 0], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>[5, [4, 5], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>[[4, 0], [3, 1], [3, 0], [4, 2], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3]]</t>
+          <t>[23, [2, 2], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>[2, [4, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>[18, 17]</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>[26, 9]</t>
+          <t>[8, [3, 3], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>[19, 16]</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>[26, 6]</t>
+          <t>[19, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>[20, 15]</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>[26, 9]</t>
+          <t>[[4, 0], [3, 1], [3, 0], [4, 2], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>[21, 14]</t>
+          <t>[18, 17]</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>[26, 9]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>[22, 13]</t>
+          <t>[19, 16]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>[23, 12]</t>
+          <t>[20, 15]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>[24, 11]</t>
+          <t>[21, 14]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>[25, 10]</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>[19, 15]</t>
+          <t>[22, 13]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>[27, 8]</t>
+          <t>[23, 12]</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>[28, 7]</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>[18, 17]</t>
+          <t>[24, 11]</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>[19, 16]</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>[26, 6]</t>
+          <t>[25, 10]</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>[20, 15]</t>
+          <t>[27, 8]</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>[21, 14]</t>
+          <t>[28, 7]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>[22, 13]</t>
+          <t>[18, 17]</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>[26, 9]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>[23, 12]</t>
+          <t>[19, 16]</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>[24, 11]</t>
+          <t>[20, 15]</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>[25, 10]</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>[19, 15]</t>
+          <t>[21, 14]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>[27, 8]</t>
+          <t>[22, 13]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>[28, 7]</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>[18, 15]</t>
+          <t>[23, 12]</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>[18, 16]</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>[28, 6]</t>
+          <t>[24, 11]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>[20, 14]</t>
+          <t>[25, 10]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>[21, 13]</t>
+          <t>[27, 8]</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>[22, 12]</t>
+          <t>[28, 7]</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>[23, 11]</t>
+          <t>[18, 16]</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>[28, 6]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>[24, 10]</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>[28, 4]</t>
+          <t>[19, 15]</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>[25, 9]</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>[18, 15]</t>
+          <t>[20, 14]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>[26, 8]</t>
+          <t>[21, 13]</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>[27, 7]</t>
+          <t>[22, 12]</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>[18, 16]</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>[28, 6]</t>
+          <t>[23, 11]</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>[20, 14]</t>
+          <t>[24, 10]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>[21, 13]</t>
+          <t>[25, 9]</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>[22, 12]</t>
+          <t>[26, 8]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>[23, 11]</t>
+          <t>[27, 7]</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>[24, 10]</t>
+          <t>[18, 16]</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>[28, 4]</t>
+          <t>[28, 6]</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>[25, 9]</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>[17, 15]</t>
+          <t>[19, 15]</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>[26, 8]</t>
+          <t>[20, 14]</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>[27, 7]</t>
+          <t>[21, 13]</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>[17, 16]</t>
+          <t>[22, 12]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>[19, 14]</t>
+          <t>[23, 11]</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>[20, 13]</t>
+          <t>[24, 10]</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>[21, 12]</t>
+          <t>[25, 9]</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>[22, 11]</t>
+          <t>[26, 8]</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>[23, 10]</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>[18, 14]</t>
+          <t>[27, 7]</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>[24, 9]</t>
+          <t>[17, 16]</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
+          <t>[18, 15]</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
           <t>[25, 8]</t>
         </is>
       </c>
@@ -3021,86 +2956,81 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>[26, 7]</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>[17, 15]</t>
+          <t>[19, 14]</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>[27, 6]</t>
+          <t>[20, 13]</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>[28, 5]</t>
+          <t>[21, 12]</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>[17, 16]</t>
+          <t>[22, 11]</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>[19, 14]</t>
+          <t>[23, 10]</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>[20, 13]</t>
+          <t>[24, 9]</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>[21, 12]</t>
+          <t>[26, 7]</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>[22, 11]</t>
+          <t>[27, 6]</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>[23, 10]</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>[18, 14]</t>
+          <t>[28, 5]</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>[24, 9]</t>
+          <t>[17, 16]</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
+          <t>[18, 15]</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
           <t>[25, 8]</t>
         </is>
       </c>
@@ -3108,69 +3038,74 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>[26, 7]</t>
+          <t>[19, 14]</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>[27, 6]</t>
+          <t>[20, 13]</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>[28, 5]</t>
+          <t>[21, 12]</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>[19, 13]</t>
+          <t>[22, 11]</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>[20, 12]</t>
+          <t>[23, 10]</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>[21, 11]</t>
+          <t>[24, 9]</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>[22, 10]</t>
+          <t>[26, 7]</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>[23, 9]</t>
+          <t>[27, 6]</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>[24, 8]</t>
+          <t>[28, 5]</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
+          <t>[17, 15]</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
           <t>[25, 7]</t>
         </is>
       </c>
@@ -3178,7 +3113,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>[27, 5]</t>
+          <t>[18, 14]</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>[23, 9]</t>
         </is>
       </c>
     </row>
@@ -3213,4901 +3153,5039 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>[23, 9]</t>
+          <t>[24, 8]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>[24, 8]</t>
+          <t>[26, 6]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>[25, 7]</t>
+          <t>[27, 5]</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>[27, 5]</t>
+          <t>[28, 4]</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>[13, [1, 2], [1, 0]]</t>
+          <t>[17, 15]</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>[26, [3, 5], [4, 3]]</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>[9, [1, 5], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>[25, [2, 5], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>[27, [3, 3], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>[16, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>[11, [1, 3], [1, 2]]</t>
+          <t>[25, 7]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>[21, [2, 2], [1, 4]]</t>
+          <t>[18, 14]</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>[5, [3, 2], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>[15, [1, 0], [0, 1]]</t>
+          <t>[23, 9]</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>[20, [2, 1], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>[8, [2, 4], [0, 5]]</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>[2, [3, 0], [4, 1]]</t>
+          <t>[19, 13]</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>[28, [4, 3], [3, 0]]</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>[7, [3, 4], [1, 5]]</t>
+          <t>[20, 12]</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>[18, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>[3, [4, 2], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>[10, [0, 5], [2, 3]]</t>
+          <t>[21, 11]</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>[4, [4, 1], [4, 4]]</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>[14, [2, 0], [0, 2]]</t>
+          <t>[22, 10]</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>[24, [0, 4], [3, 5]]</t>
+          <t>[24, 8]</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>[23, [1, 4], [2, 5]]</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>[19, [1, 1], [2, 2]]</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>[22, [0, 3], [0, 4]]</t>
+          <t>[26, 6]</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>[6, [4, 4], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>[17, [0, 1], [1, 1]]</t>
+          <t>[27, 5]</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>[12, [2, 3], [2, 0]]</t>
+          <t>[28, 4]</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>[[4, 0], [3, 1], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0]]</t>
+          <t>[13, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>[26, [3, 5], [4, 3]]</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>[9, [1, 5], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>[25, [2, 5], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>[27, [3, 3], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>[16, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>[11, [1, 3], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>[16, 15]</t>
+          <t>[21, [2, 2], [1, 4]]</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>[24, 7]</t>
+          <t>[5, [3, 2], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>[15, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>[17, 14]</t>
+          <t>[20, [2, 1], [0, 3]]</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>[24, 4]</t>
+          <t>[8, [2, 4], [0, 5]]</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>[2, [3, 0], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>[18, 13]</t>
+          <t>[28, [4, 3], [3, 0]]</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>[24, 7]</t>
+          <t>[7, [3, 4], [1, 5]]</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>[19, 12]</t>
+          <t>[18, [0, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>[3, [4, 2], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>[10, [0, 5], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>[20, 11]</t>
+          <t>[4, [4, 1], [4, 4]]</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>[14, [2, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>[21, 10]</t>
+          <t>[24, [0, 4], [3, 5]]</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>[22, 9]</t>
+          <t>[23, [1, 4], [2, 5]]</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>[19, [1, 1], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>[22, [0, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>[23, 8]</t>
+          <t>[6, [4, 4], [2, 4]]</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>[17, 13]</t>
+          <t>[17, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>[25, 6]</t>
+          <t>[12, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>[26, 5]</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>[16, 15]</t>
+          <t>[[4, 0], [3, 1], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>[27, 4]</t>
+          <t>[16, 15]</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>[20, 8]</t>
+          <t>[24, 7]</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>[28, 3]</t>
+          <t>[17, 14]</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>[17, 14]</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>[24, 4]</t>
+          <t>[18, 13]</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>[18, 13]</t>
+          <t>[19, 12]</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>[19, 12]</t>
+          <t>[20, 11]</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>[20, 11]</t>
+          <t>[21, 10]</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>[21, 10]</t>
+          <t>[22, 9]</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>[22, 9]</t>
+          <t>[23, 8]</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>[23, 8]</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>[28, 2]</t>
+          <t>[25, 6]</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>[25, 6]</t>
+          <t>[26, 5]</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>[26, 5]</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>[16, 13]</t>
+          <t>[27, 4]</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>[27, 4]</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>[20, 8]</t>
+          <t>[28, 3]</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>[28, 3]</t>
+          <t>[16, 15]</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>[24, 7]</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>[16, 14]</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>[26, 4]</t>
+          <t>[17, 14]</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>[18, 12]</t>
+          <t>[18, 13]</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>[19, 11]</t>
+          <t>[19, 12]</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>[20, 10]</t>
+          <t>[20, 11]</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>[21, 9]</t>
+          <t>[21, 10]</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>[22, 8]</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>[28, 2]</t>
+          <t>[22, 9]</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>[23, 7]</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>[28, 1]</t>
+          <t>[23, 8]</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>[24, 6]</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>[16, 13]</t>
+          <t>[25, 6]</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>[25, 5]</t>
+          <t>[26, 5]</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>[27, 3]</t>
+          <t>[27, 4]</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>[16, 14]</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>[26, 4]</t>
+          <t>[28, 3]</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>[17, 13]</t>
+          <t>[16, 14]</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>[26, 4]</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>[18, 12]</t>
+          <t>[17, 13]</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>[19, 11]</t>
+          <t>[18, 12]</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>[20, 10]</t>
+          <t>[19, 11]</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>[21, 9]</t>
+          <t>[20, 10]</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>[22, 8]</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>[27, 2]</t>
+          <t>[21, 9]</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>[23, 7]</t>
+          <t>[22, 8]</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>[28, 1]</t>
+          <t>[28, 2]</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>[24, 6]</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>[28, 0]</t>
+          <t>[23, 7]</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>[25, 5]</t>
+          <t>[24, 6]</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>[27, 3]</t>
+          <t>[25, 5]</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>[15, 14]</t>
+          <t>[27, 3]</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>[17, 12]</t>
+          <t>[16, 14]</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>[26, 4]</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>[18, 11]</t>
+          <t>[17, 13]</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>[19, 10]</t>
+          <t>[18, 12]</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>[20, 9]</t>
+          <t>[19, 11]</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>[21, 8]</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>[16, 12]</t>
+          <t>[20, 10]</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>[22, 7]</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>[27, 2]</t>
+          <t>[21, 9]</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>[23, 6]</t>
+          <t>[22, 8]</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>[28, 0]</t>
+          <t>[28, 2]</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>[24, 5]</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>[15, 13]</t>
+          <t>[23, 7]</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>[25, 4]</t>
+          <t>[24, 6]</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>[26, 3]</t>
+          <t>[25, 5]</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>[15, 14]</t>
+          <t>[27, 3]</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>[17, 12]</t>
+          <t>[15, 14]</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>[18, 11]</t>
+          <t>[16, 13]</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>[23, 6]</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>[19, 10]</t>
+          <t>[17, 12]</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>[20, 9]</t>
+          <t>[18, 11]</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>[21, 8]</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>[16, 12]</t>
+          <t>[19, 10]</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>[22, 7]</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>[27, 1]</t>
+          <t>[20, 9]</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>[23, 6]</t>
+          <t>[21, 8]</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>[24, 5]</t>
+          <t>[22, 7]</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>[15, 13]</t>
+          <t>[27, 2]</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>[25, 4]</t>
+          <t>[24, 5]</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>[26, 3]</t>
+          <t>[25, 4]</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>[17, 11]</t>
+          <t>[26, 3]</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>[18, 10]</t>
+          <t>[28, 1]</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>[19, 9]</t>
+          <t>[15, 14]</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>[21, 7]</t>
+          <t>[16, 13]</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>[23, 6]</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>[22, 6]</t>
+          <t>[17, 12]</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>[23, 5]</t>
+          <t>[18, 11]</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>[25, 3]</t>
+          <t>[19, 10]</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>[26, 2]</t>
+          <t>[20, 9]</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>[17, 11]</t>
+          <t>[21, 8]</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>[18, 10]</t>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>[27, 2]</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>[19, 9]</t>
+          <t>[24, 5]</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>[21, 7]</t>
+          <t>[25, 4]</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>[22, 6]</t>
+          <t>[26, 3]</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>[23, 5]</t>
+          <t>[28, 1]</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>[25, 3]</t>
+          <t>[15, 13]</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>[23, 5]</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>[26, 2]</t>
+          <t>[16, 12]</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>[21, 7]</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>[27, 1]</t>
+          <t>[17, 11]</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>[22, [0, 4], [3, 5]]</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>[28, [3, 0], [4, 0]]</t>
-        </is>
-      </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>[25, [3, 3], [4, 2]]</t>
+          <t>[18, 10]</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>[11, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>[24, [3, 5], [4, 3]]</t>
-        </is>
-      </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>[23, [2, 5], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="D437" t="inlineStr">
-        <is>
-          <t>[7, [1, 5], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="E437" t="inlineStr">
-        <is>
-          <t>[14, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="F437" t="inlineStr">
-        <is>
-          <t>[9, [1, 3], [1, 2]]</t>
+          <t>[19, 9]</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>[16, [0, 0], [2, 1]]</t>
+          <t>[20, 8]</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>[3, [3, 2], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>[0, [4, 0], [4, 1]]</t>
-        </is>
-      </c>
-      <c r="D438" t="inlineStr">
-        <is>
-          <t>[1, [3, 1], [3, 2]]</t>
+          <t>[28, 0]</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>[18, [2, 1], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>[6, [2, 4], [0, 5]]</t>
-        </is>
-      </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>[5, [3, 4], [1, 5]]</t>
-        </is>
-      </c>
-      <c r="D439" t="inlineStr">
-        <is>
-          <t>[12, [2, 0], [0, 2]]</t>
+          <t>[22, 6]</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>[4, [4, 4], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>[15, [0, 1], [1, 1]]</t>
+          <t>[24, 4]</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>[8, [0, 5], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>[27, [4, 2], [3, 1]]</t>
+          <t>[25, 3]</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>[10, [2, 3], [2, 0]]</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>[26, [4, 3], [3, 0]]</t>
+          <t>[26, 2]</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>[21, [1, 4], [2, 5]]</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>[2, [4, 1], [4, 4]]</t>
+          <t>[27, 1]</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>[19, [2, 2], [1, 4]]</t>
+          <t>[15, 13]</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>[13, [1, 0], [0, 1]]</t>
+          <t>[23, 5]</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>[17, [1, 1], [2, 2]]</t>
+          <t>[16, 12]</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>[21, 7]</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>[20, [0, 3], [0, 4]]</t>
+          <t>[17, 11]</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>[[4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1], [4, 0]]</t>
+          <t>[18, 10]</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>[14, 13]</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>[22, 5]</t>
+          <t>[19, 9]</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>[15, 12]</t>
+          <t>[20, 8]</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>[22, 2]</t>
+          <t>[28, 0]</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>[16, 11]</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>[22, 5]</t>
+          <t>[22, 6]</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>[17, 10]</t>
+          <t>[24, 4]</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>[18, 9]</t>
+          <t>[25, 3]</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>[19, 8]</t>
+          <t>[26, 2]</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>[20, 7]</t>
+          <t>[27, 1]</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>[21, 6]</t>
+          <t>[22, [0, 4], [3, 5]]</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>[27, 0]</t>
+          <t>[28, [3, 0], [4, 0]]</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>[25, [3, 3], [4, 2]]</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>[23, 4]</t>
+          <t>[11, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>[24, [3, 5], [4, 3]]</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>[23, [2, 5], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>[7, [1, 5], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>[14, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>[9, [1, 3], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>[24, 3]</t>
+          <t>[16, [0, 0], [2, 1]]</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>[14, 13]</t>
+          <t>[3, [3, 2], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>[0, [4, 0], [4, 1]]</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>[1, [3, 1], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>[25, 2]</t>
+          <t>[18, [2, 1], [0, 3]]</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[6, [2, 4], [0, 5]]</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>[5, [3, 4], [1, 5]]</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>[12, [2, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>[26, 1]</t>
+          <t>[4, [4, 4], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>[15, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>[15, 12]</t>
+          <t>[8, [0, 5], [2, 3]]</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>[22, 2]</t>
+          <t>[27, [4, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>[16, 11]</t>
+          <t>[10, [2, 3], [2, 0]]</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>[26, [4, 3], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>[17, 10]</t>
+          <t>[21, [1, 4], [2, 5]]</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>[2, [4, 1], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>[18, 9]</t>
+          <t>[19, [2, 2], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>[13, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>[19, 8]</t>
+          <t>[17, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>[20, 7]</t>
+          <t>[20, [0, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>[21, 6]</t>
-        </is>
-      </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>[27, 0]</t>
+          <t>[[4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>[23, 4]</t>
+          <t>[14, 13]</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>[22, 5]</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>[24, 3]</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>[14, 11]</t>
+          <t>[15, 12]</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>[25, 2]</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>[18, 6]</t>
+          <t>[16, 11]</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>[26, 1]</t>
+          <t>[17, 10]</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>[14, 12]</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>[24, 2]</t>
+          <t>[18, 9]</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>[15, 11]</t>
+          <t>[19, 8]</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>[16, 10]</t>
+          <t>[20, 7]</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>[17, 9]</t>
+          <t>[21, 6]</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>[27, 0]</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>[18, 8]</t>
+          <t>[23, 4]</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>[19, 7]</t>
+          <t>[24, 3]</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>[20, 6]</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>[26, 0]</t>
+          <t>[25, 2]</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>[21, 5]</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>[26, 0]</t>
+          <t>[26, 1]</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>[22, 4]</t>
+          <t>[14, 13]</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>[14, 11]</t>
+          <t>[22, 5]</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>[23, 3]</t>
+          <t>[15, 12]</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>[25, 1]</t>
+          <t>[16, 11]</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>[14, 12]</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>[24, 2]</t>
+          <t>[17, 10]</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>[15, 11]</t>
+          <t>[18, 9]</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>[16, 10]</t>
+          <t>[19, 8]</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>[17, 9]</t>
+          <t>[20, 7]</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>[18, 8]</t>
+          <t>[21, 6]</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>[27, 0]</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>[19, 7]</t>
+          <t>[23, 4]</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>[20, 6]</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>[25, 0]</t>
+          <t>[24, 3]</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>[21, 5]</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>[13, 11]</t>
+          <t>[25, 2]</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>[22, 4]</t>
+          <t>[26, 1]</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>[23, 3]</t>
+          <t>[14, 12]</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>[24, 2]</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>[25, 1]</t>
+          <t>[15, 11]</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>[13, 12]</t>
+          <t>[16, 10]</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>[15, 10]</t>
+          <t>[17, 9]</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>[16, 9]</t>
+          <t>[18, 8]</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>[17, 8]</t>
+          <t>[19, 7]</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>[18, 7]</t>
+          <t>[20, 6]</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>[26, 0]</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>[19, 6]</t>
-        </is>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t>[14, 10]</t>
+          <t>[21, 5]</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>[20, 5]</t>
-        </is>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>[25, 0]</t>
+          <t>[22, 4]</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>[21, 4]</t>
+          <t>[23, 3]</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>[22, 3]</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>[13, 11]</t>
+          <t>[25, 1]</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>[23, 2]</t>
+          <t>[14, 12]</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>[24, 2]</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>[24, 1]</t>
+          <t>[15, 11]</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>[13, 12]</t>
+          <t>[16, 10]</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>[15, 10]</t>
+          <t>[17, 9]</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>[16, 9]</t>
+          <t>[18, 8]</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>[17, 8]</t>
+          <t>[19, 7]</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>[18, 7]</t>
+          <t>[20, 6]</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>[26, 0]</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>[19, 6]</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>[14, 10]</t>
+          <t>[21, 5]</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>[20, 5]</t>
+          <t>[22, 4]</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>[21, 4]</t>
+          <t>[23, 3]</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>[22, 3]</t>
+          <t>[25, 1]</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>[23, 2]</t>
+          <t>[13, 12]</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>[24, 1]</t>
+          <t>[14, 11]</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>[21, 4]</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>[15, 9]</t>
+          <t>[15, 10]</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>[16, 8]</t>
+          <t>[16, 9]</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>[17, 7]</t>
+          <t>[17, 8]</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>[19, 5]</t>
+          <t>[18, 7]</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>[20, 4]</t>
+          <t>[19, 6]</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>[21, 3]</t>
+          <t>[20, 5]</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>[25, 0]</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>[23, 1]</t>
+          <t>[22, 3]</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>[24, 0]</t>
+          <t>[23, 2]</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>[15, 9]</t>
+          <t>[24, 1]</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>[16, 8]</t>
+          <t>[13, 12]</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>[17, 7]</t>
+          <t>[14, 11]</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>[21, 4]</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>[19, 5]</t>
+          <t>[15, 10]</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>[20, 4]</t>
+          <t>[16, 9]</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>[21, 3]</t>
+          <t>[17, 8]</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>[23, 1]</t>
+          <t>[18, 7]</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>[24, 0]</t>
+          <t>[19, 6]</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>[20, [0, 4], [3, 5]]</t>
+          <t>[20, 5]</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>[23, [3, 3], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>[27, [3, 1], [4, 0]]</t>
+          <t>[25, 0]</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>[9, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>[22, [3, 5], [4, 3]]</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>[5, [1, 5], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="D532" t="inlineStr">
-        <is>
-          <t>[12, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>[21, [2, 5], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="F532" t="inlineStr">
-        <is>
-          <t>[7, [1, 3], [1, 2]]</t>
+          <t>[22, 3]</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>[14, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>[24, [4, 3], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr">
-        <is>
-          <t>[6, [0, 5], [2, 3]]</t>
+          <t>[23, 2]</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>[10, [2, 0], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>[3, [3, 4], [1, 5]]</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>[0, [4, 1], [4, 4]]</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>[4, [2, 4], [0, 5]]</t>
+          <t>[24, 1]</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>[25, [4, 2], [3, 1]]</t>
+          <t>[13, 11]</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>[19, [1, 4], [2, 5]]</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>[18, [0, 3], [0, 4]]</t>
+          <t>[21, 3]</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>[17, [2, 2], [1, 4]]</t>
+          <t>[14, 10]</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>[11, [1, 0], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>[1, [3, 2], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>[28, [4, 0], [4, 1]]</t>
+          <t>[19, 5]</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>[16, [2, 1], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>[2, [4, 4], [2, 4]]</t>
+          <t>[15, 9]</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>[15, [1, 1], [2, 2]]</t>
+          <t>[16, 8]</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>[8, [2, 3], [2, 0]]</t>
+          <t>[17, 7]</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>[13, [0, 1], [1, 1]]</t>
+          <t>[18, 6]</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>[[4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 2], [3, 1], [3, 0], [4, 0], [4, 1]]</t>
+          <t>[20, 4]</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>[12, 11]</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>[20, 3]</t>
+          <t>[22, 2]</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>[13, 10]</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>[20, 0]</t>
+          <t>[23, 1]</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>[14, 9]</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>[20, 3]</t>
+          <t>[24, 0]</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>[15, 8]</t>
+          <t>[13, 11]</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>[21, 3]</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>[16, 7]</t>
+          <t>[14, 10]</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>[19, 5]</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>[17, 6]</t>
+          <t>[15, 9]</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>[18, 5]</t>
+          <t>[16, 8]</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>[19, 4]</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>[13, 9]</t>
+          <t>[17, 7]</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>[21, 2]</t>
+          <t>[18, 6]</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>[22, 1]</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>[12, 11]</t>
+          <t>[20, 4]</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>[23, 0]</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>[16, 4]</t>
+          <t>[22, 2]</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>[13, 10]</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>[20, 0]</t>
+          <t>[23, 1]</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>[14, 9]</t>
+          <t>[24, 0]</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>[15, 8]</t>
+          <t>[20, [0, 4], [3, 5]]</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>[23, [3, 3], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>[27, [3, 1], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>[16, 7]</t>
+          <t>[9, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>[22, [3, 5], [4, 3]]</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>[5, [1, 5], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>[12, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>[21, [2, 5], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>[7, [1, 3], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>[17, 6]</t>
+          <t>[14, [0, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>[24, [4, 3], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>[6, [0, 5], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>[18, 5]</t>
+          <t>[10, [2, 0], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>[3, [3, 4], [1, 5]]</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>[0, [4, 1], [4, 4]]</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>[4, [2, 4], [0, 5]]</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>[19, 4]</t>
+          <t>[25, [4, 2], [3, 1]]</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>[13, 9]</t>
+          <t>[19, [1, 4], [2, 5]]</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>[18, [0, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>[21, 2]</t>
+          <t>[17, [2, 2], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>[11, [1, 0], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>[1, [3, 2], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>[28, [4, 0], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>[22, 1]</t>
+          <t>[16, [2, 1], [0, 3]]</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>[12, 9]</t>
+          <t>[2, [4, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>[23, 0]</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>[16, 4]</t>
+          <t>[15, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>[12, 10]</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>[22, 0]</t>
+          <t>[8, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>[14, 8]</t>
+          <t>[13, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>[15, 7]</t>
+          <t>[[4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 2], [3, 1], [3, 0], [4, 0], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>[16, 6]</t>
+          <t>[12, 11]</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>[20, 3]</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>[17, 5]</t>
+          <t>[13, 10]</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>[18, 4]</t>
+          <t>[14, 9]</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>[19, 3]</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>[12, 9]</t>
+          <t>[15, 8]</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>[20, 2]</t>
+          <t>[16, 7]</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>[21, 1]</t>
+          <t>[17, 6]</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>[12, 10]</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>[22, 0]</t>
+          <t>[18, 5]</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>[14, 8]</t>
+          <t>[19, 4]</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>[15, 7]</t>
+          <t>[21, 2]</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>[16, 6]</t>
+          <t>[22, 1]</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>[17, 5]</t>
+          <t>[23, 0]</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>[18, 4]</t>
+          <t>[12, 11]</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>[20, 3]</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>[19, 3]</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>[11, 9]</t>
+          <t>[13, 10]</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>[20, 2]</t>
+          <t>[14, 9]</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>[21, 1]</t>
+          <t>[15, 8]</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>[11, 10]</t>
+          <t>[16, 7]</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>[13, 8]</t>
+          <t>[17, 6]</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>[14, 7]</t>
+          <t>[18, 5]</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>[15, 6]</t>
+          <t>[19, 4]</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>[16, 5]</t>
+          <t>[21, 2]</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>[17, 4]</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>[12, 8]</t>
+          <t>[22, 1]</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>[18, 3]</t>
+          <t>[23, 0]</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>[19, 2]</t>
+          <t>[12, 10]</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>[22, 0]</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>[20, 1]</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>[11, 9]</t>
+          <t>[13, 9]</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>[21, 0]</t>
+          <t>[14, 8]</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>[11, 10]</t>
+          <t>[15, 7]</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>[13, 8]</t>
+          <t>[16, 6]</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>[14, 7]</t>
+          <t>[17, 5]</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>[15, 6]</t>
+          <t>[18, 4]</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>[16, 5]</t>
+          <t>[19, 3]</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>[17, 4]</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>[12, 8]</t>
+          <t>[20, 2]</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>[18, 3]</t>
+          <t>[21, 1]</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>[19, 2]</t>
+          <t>[12, 10]</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>[22, 0]</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>[20, 1]</t>
+          <t>[13, 9]</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>[21, 0]</t>
+          <t>[14, 8]</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>[13, 7]</t>
+          <t>[15, 7]</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[16, 6]</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>[15, 5]</t>
+          <t>[17, 5]</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>[17, 3]</t>
+          <t>[18, 4]</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>[18, 2]</t>
+          <t>[19, 3]</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>[19, 1]</t>
+          <t>[20, 2]</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>[13, 7]</t>
+          <t>[21, 1]</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[11, 10]</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>[15, 5]</t>
+          <t>[12, 9]</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>[19, 2]</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>[17, 3]</t>
+          <t>[13, 8]</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>[18, 2]</t>
+          <t>[14, 7]</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>[19, 1]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>[7, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>[21, [3, 3], [3, 1]]</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>[10, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>[3, [1, 5], [1, 3]]</t>
+          <t>[16, 5]</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>[2, [2, 4], [0, 5]]</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>[28, [4, 1], [5, 1]]</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr">
-        <is>
-          <t>[27, [4, 0], [5, 0]]</t>
-        </is>
-      </c>
-      <c r="D614" t="inlineStr">
-        <is>
-          <t>[1, [3, 4], [1, 5]]</t>
+          <t>[17, 4]</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>[4, [0, 5], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>[12, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr">
-        <is>
-          <t>[19, [2, 5], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="D615" t="inlineStr">
-        <is>
-          <t>[26, [3, 0], [4, 1]]</t>
+          <t>[18, 3]</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>[20, [3, 5], [3, 0]]</t>
+          <t>[20, 1]</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>[25, [3, 1], [4, 0]]</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>[17, [1, 4], [2, 5]]</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr">
-        <is>
-          <t>[16, [0, 3], [0, 4]]</t>
+          <t>[21, 0]</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>[8, [2, 0], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>[14, [2, 1], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr">
-        <is>
-          <t>[0, [4, 4], [2, 4]]</t>
+          <t>[11, 10]</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>[18, [0, 4], [3, 5]]</t>
+          <t>[12, 9]</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>[19, 2]</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>[13, [1, 1], [2, 2]]</t>
+          <t>[13, 8]</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>[15, [2, 2], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>[9, [1, 0], [0, 1]]</t>
+          <t>[14, 7]</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>[11, [0, 1], [1, 1]]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>[6, [2, 3], [2, 0]]</t>
+          <t>[16, 5]</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>[5, [1, 3], [1, 2]]</t>
+          <t>[17, 4]</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>[[2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [3, 0], [3, 1], [4, 3], [4, 2], [3, 2], [4, 0], [4, 1], [5, 0], [5, 1]]</t>
+          <t>[18, 3]</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>[10, 9]</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>[18, 1]</t>
+          <t>[20, 1]</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>[11, 8]</t>
+          <t>[21, 0]</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>[12, 7]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>[18, 1]</t>
+          <t>[19, 1]</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>[13, 6]</t>
+          <t>[12, 8]</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>[17, 3]</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>[14, 5]</t>
+          <t>[13, 7]</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>[15, 4]</t>
+          <t>[14, 6]</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>[16, 3]</t>
+          <t>[15, 5]</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>[17, 2]</t>
-        </is>
-      </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>[11, 7]</t>
+          <t>[16, 4]</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>[19, 0]</t>
+          <t>[18, 2]</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>[10, 9]</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>[17, 1]</t>
+          <t>[20, 0]</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>[11, 8]</t>
+          <t>[11, 9]</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>[19, 1]</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>[12, 7]</t>
+          <t>[12, 8]</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>[17, 3]</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>[13, 6]</t>
+          <t>[13, 7]</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>[14, 5]</t>
+          <t>[14, 6]</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>[15, 4]</t>
+          <t>[15, 5]</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>[16, 3]</t>
+          <t>[16, 4]</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>[17, 2]</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>[11, 7]</t>
+          <t>[18, 2]</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>[19, 0]</t>
+          <t>[20, 0]</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>[10, 8]</t>
+          <t>[7, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>[21, [3, 3], [3, 1]]</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>[10, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>[3, [1, 5], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[2, [2, 4], [0, 5]]</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>[28, [4, 1], [5, 1]]</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>[27, [4, 0], [5, 0]]</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>[1, [3, 4], [1, 5]]</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[4, [0, 5], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>[12, [0, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>[19, [2, 5], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>[26, [3, 0], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[20, [3, 5], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[25, [3, 1], [4, 0]]</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>[17, [1, 4], [2, 5]]</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>[16, [0, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>[16, 2]</t>
+          <t>[8, [2, 0], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>[14, [2, 1], [0, 3]]</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>[0, [4, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
+          <t>[18, [0, 4], [3, 5]]</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>[10, 8]</t>
+          <t>[13, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[15, [2, 2], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>[9, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[11, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[6, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[5, [1, 3], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>[16, 2]</t>
+          <t>[[2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [3, 0], [3, 1], [4, 3], [4, 2], [3, 2], [4, 0], [4, 1], [5, 0], [5, 1]]</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>[17, 1]</t>
+          <t>[10, 9]</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>[10, 7]</t>
+          <t>[18, 1]</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
+          <t>[11, 8]</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[12, 7]</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>[11, 6]</t>
+          <t>[13, 6]</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>[12, 5]</t>
+          <t>[14, 5]</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>[13, 4]</t>
+          <t>[15, 4]</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>[14, 3]</t>
+          <t>[16, 3]</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>[15, 2]</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>[10, 6]</t>
+          <t>[17, 2]</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[19, 0]</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>[17, 0]</t>
+          <t>[10, 9]</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>[18, 1]</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[11, 8]</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>[11, 6]</t>
+          <t>[12, 7]</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>[12, 5]</t>
+          <t>[13, 6]</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>[13, 4]</t>
+          <t>[14, 5]</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>[14, 3]</t>
+          <t>[15, 4]</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>[15, 2]</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>[10, 6]</t>
+          <t>[16, 3]</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[17, 2]</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>[17, 0]</t>
+          <t>[19, 0]</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>[9, 7]</t>
+          <t>[10, 8]</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[11, 7]</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>[15, 1]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>[9, 7]</t>
+          <t>[17, 1]</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[18, 0]</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[10, 8]</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[11, 7]</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>[15, 1]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>[12, [2, 1], [5, 1]]</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>[9, [0, 1], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>[0, [2, 4], [5, 3]]</t>
-        </is>
-      </c>
-      <c r="D689" t="inlineStr">
-        <is>
-          <t>[15, [1, 4], [3, 3]]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>[10, [0, 0], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>[13, [2, 2], [4, 3]]</t>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>[19, [3, 3], [0, 0]]</t>
+          <t>[17, 1]</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>[26, [4, 1], [0, 3]]</t>
+          <t>[18, 0]</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>[1, [1, 5], [5, 2]]</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>[16, [0, 4], [4, 0]]</t>
+          <t>[9, 8]</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>[2, [0, 5], [4, 1]]</t>
+          <t>[10, 7]</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>[17, 0]</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>[7, [1, 0], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>[24, [3, 2], [1, 3]]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>[3, [1, 3], [3, 1]]</t>
+          <t>[12, 5]</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>[11, [1, 1], [4, 2]]</t>
+          <t>[13, 4]</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>[21, [3, 1], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>[6, [2, 0], [0, 1]]</t>
+          <t>[14, 3]</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>[14, [0, 3], [5, 4]]</t>
+          <t>[15, 2]</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>[23, [4, 2], [4, 4]]</t>
+          <t>[16, 1]</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>[25, [4, 0], [2, 0]]</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>[28, [5, 1], [5, 5]]</t>
+          <t>[9, 8]</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>[8, [0, 2], [1, 1]]</t>
+          <t>[10, 7]</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>[22, [4, 3], [2, 3]]</t>
+          <t>[17, 0]</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>[4, [2, 3], [2, 2]]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>[[5, 3], [5, 2], [4, 1], [3, 1], [2, 2], [1, 2], [0, 1], [0, 2], [1, 1], [2, 1], [3, 2], [4, 2], [5, 1], [4, 3], [5, 4], [3, 3], [4, 0], [2, 5], [3, 5], [0, 0], [3, 0], [2, 4], [2, 3], [4, 4], [1, 3], [2, 0], [0, 3], [5, 0], [5, 5]]</t>
+          <t>[12, 5]</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>[8, 7]</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>[14, 1]</t>
+          <t>[13, 4]</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[14, 3]</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>[10, 5]</t>
+          <t>[15, 2]</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[16, 1]</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>[12, 3]</t>
+          <t>[9, 7]</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>[13, 2]</t>
+          <t>[10, 6]</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>[15, 0]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>[8, 7]</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>[14, 1]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>[10, 5]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>[12, 3]</t>
+          <t>[9, 7]</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>[13, 2]</t>
+          <t>[10, 6]</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>[15, 0]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>[14, 0]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[12, [2, 1], [5, 1]]</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>[9, [0, 1], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>[0, [2, 4], [5, 3]]</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>[15, [1, 4], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[10, [0, 0], [3, 2]]</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[13, [2, 2], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>[14, 0]</t>
+          <t>[19, [3, 3], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[26, [4, 1], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[1, [1, 5], [5, 2]]</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>[16, [0, 4], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[2, [0, 5], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[7, [1, 0], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>[24, [3, 2], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
-        </is>
-      </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>[7, 6]</t>
+          <t>[3, [1, 3], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[11, [1, 1], [4, 2]]</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[21, [3, 1], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>[6, [2, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[14, [0, 3], [5, 4]]</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[23, [4, 2], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[25, [4, 0], [2, 0]]</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>[28, [5, 1], [5, 5]]</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
+          <t>[8, [0, 2], [1, 1]]</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>[22, [4, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[4, [2, 3], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[[5, 3], [5, 2], [4, 1], [3, 1], [2, 2], [1, 2], [0, 1], [0, 2], [1, 1], [2, 1], [3, 2], [4, 2], [5, 1], [4, 3], [5, 4], [3, 3], [4, 0], [2, 5], [3, 5], [0, 0], [3, 0], [2, 4], [2, 3], [4, 4], [1, 3], [2, 0], [0, 3], [5, 0], [5, 5]]</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[8, 7]</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[9, 6]</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[10, 5]</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
-        </is>
-      </c>
-      <c r="B743" t="inlineStr">
-        <is>
-          <t>[12, 0]</t>
+          <t>[12, 3]</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>[8, 4]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[15, 0]</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[8, 7]</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[9, 6]</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[10, 5]</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
-        </is>
-      </c>
-      <c r="B749" t="inlineStr">
-        <is>
-          <t>[12, 0]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>[8, 4]</t>
+          <t>[12, 3]</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[15, 0]</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[8, 6]</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>[15, 13]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>[6, 5]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[8, 6]</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>[12, 16]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>[6, 5]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[7, 6]</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>[16, 12]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>[26, [0, 3], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="B770" t="inlineStr">
-        <is>
-          <t>[25, [2, 0], [4, 0]]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>[1, [5, 2], [1, 1]]</t>
+          <t>[7, 6]</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>[12, [5, 1], [0, 4]]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>[16, [4, 0], [0, 5]]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>[4, [2, 2], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="B774" t="inlineStr">
-        <is>
-          <t>[2, [4, 1], [1, 2]]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>[18, [3, 5], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B775" t="inlineStr">
-        <is>
-          <t>[0, [5, 3], [2, 1]]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>[24, [1, 3], [3, 1]]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>[3, [3, 1], [0, 2]]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>[11, [4, 2], [1, 5]]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>[10, [3, 2], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B778" t="inlineStr">
-        <is>
-          <t>[5, [1, 2], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="C778" t="inlineStr">
-        <is>
-          <t>[8, [1, 1], [1, 0]]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>[22, [2, 3], [3, 2]]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>[7, [0, 2], [2, 2]]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>[9, [2, 1], [2, 0]]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>[[2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [2, 0], [2, 3], [1, 5], [0, 4], [4, 3], [5, 4], [3, 3], [0, 5], [2, 5], [1, 4], [0, 0], [3, 0], [2, 4], [3, 2], [4, 4], [3, 1], [4, 0], [3, 4], [5, 0], [5, 5]]</t>
+          <t>[13, 15]</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[7, 5]</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>[12, 16]</t>
-        </is>
-      </c>
-      <c r="B788" t="inlineStr">
-        <is>
-          <t>[8, 20]</t>
+          <t>[15, 13]</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>[11, 17]</t>
-        </is>
-      </c>
-      <c r="B789" t="inlineStr">
-        <is>
-          <t>[9, 19]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>[17, 11]</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr">
-        <is>
-          <t>[19, 9]</t>
+          <t>[13, 15]</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[12, 16]</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>[11, 17]</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>[9, 19]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>[10, 18]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[16, 12]</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[26, [0, 3], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>[25, [2, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[1, [5, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[12, [5, 1], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[16, [4, 0], [0, 5]]</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>[18, 10]</t>
+          <t>[4, [2, 2], [0, 3]]</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>[2, [4, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[18, [3, 5], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>[0, [5, 3], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[24, [1, 3], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[3, [3, 1], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>[11, [4, 2], [1, 5]]</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[10, [3, 2], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>[5, [1, 2], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>[8, [1, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>[10, 18]</t>
+          <t>[22, [2, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[7, [0, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[9, [2, 1], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[[2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [2, 0], [2, 3], [1, 5], [0, 4], [4, 3], [5, 4], [3, 3], [0, 5], [2, 5], [1, 4], [0, 0], [3, 0], [2, 4], [3, 2], [4, 4], [3, 1], [4, 0], [3, 4], [5, 0], [5, 5]]</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[12, 16]</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[11, 17]</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>[20, 8]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[17, 11]</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>[8, 20]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>[7, 21]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>[21, 7]</t>
+          <t>[11, 17]</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>[25, [4, 0], [2, 0]]</t>
-        </is>
-      </c>
-      <c r="B836" t="inlineStr">
-        <is>
-          <t>[21, [2, 4], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="C836" t="inlineStr">
-        <is>
-          <t>[0, [2, 1], [1, 1]]</t>
+          <t>[10, 18]</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>[5, [1, 3], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B837" t="inlineStr">
-        <is>
-          <t>[28, [5, 5], [2, 2]]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>[18, [1, 4], [4, 4]]</t>
-        </is>
-      </c>
-      <c r="B838" t="inlineStr">
-        <is>
-          <t>[4, [0, 3], [1, 2]]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>[16, [0, 5], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="B839" t="inlineStr">
-        <is>
-          <t>[20, [3, 0], [4, 1]]</t>
-        </is>
-      </c>
-      <c r="C839" t="inlineStr">
-        <is>
-          <t>[12, [0, 4], [3, 3]]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>[23, [4, 4], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B840" t="inlineStr">
-        <is>
-          <t>[3, [0, 2], [0, 0]]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>[27, [5, 0], [0, 4]]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>[8, [1, 0], [3, 0]]</t>
-        </is>
-      </c>
-      <c r="B842" t="inlineStr">
-        <is>
-          <t>[6, [0, 1], [1, 5]]</t>
+          <t>[18, 10]</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>[22, [3, 2], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B843" t="inlineStr">
-        <is>
-          <t>[1, [1, 1], [0, 2]]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>[26, [3, 4], [0, 3]]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>[7, [2, 2], [0, 5]]</t>
-        </is>
-      </c>
-      <c r="B845" t="inlineStr">
-        <is>
-          <t>[24, [3, 1], [1, 3]]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>[2, [1, 2], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="B846" t="inlineStr">
-        <is>
-          <t>[15, [3, 3], [3, 2]]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>[19, [0, 0], [4, 0]]</t>
+          <t>[10, 18]</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>[9, [2, 0], [3, 1]]</t>
+          <t>[9, 19]</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>[11, [1, 5], [2, 5]]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>[17, [2, 5], [3, 5]]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>[[1, 1], [0, 2], [0, 1], [0, 0], [1, 2], [1, 0], [1, 5], [0, 5], [3, 0], [3, 1], [2, 3], [2, 5], [3, 3], [4, 3], [5, 4], [3, 2], [3, 4], [3, 5], [4, 4], [4, 0], [4, 1], [1, 4], [2, 4], [2, 1], [1, 3], [2, 0], [0, 3], [0, 4], [2, 2]]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[19, 9]</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>[7, 21]</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr">
-        <is>
-          <t>[3, 25]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>[6, 22]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[9, 19]</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[8, 20]</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>[22, 6]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>[6, 22]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>[5, 23]</t>
+          <t>[20, 8]</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>[23, 5]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[8, 20]</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[7, 21]</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>[5, 23]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>[4, 24]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[21, 7]</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>[24, 4]</t>
+          <t>[25, [4, 0], [2, 0]]</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>[21, [2, 4], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>[0, [2, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[5, [1, 3], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>[28, [5, 5], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>[4, 24]</t>
+          <t>[18, [1, 4], [4, 4]]</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>[4, [0, 3], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[16, [0, 5], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>[20, [3, 0], [4, 1]]</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>[12, [0, 4], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>[25, 3]</t>
+          <t>[23, [4, 4], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>[3, [0, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[27, [5, 0], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>[3, 25]</t>
+          <t>[8, [1, 0], [3, 0]]</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>[6, [0, 1], [1, 5]]</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>[2, 26]</t>
+          <t>[22, [3, 2], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>[1, [1, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[26, [3, 4], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>[26, 2]</t>
+          <t>[7, [2, 2], [0, 5]]</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>[24, [3, 1], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>[2, 26]</t>
+          <t>[2, [1, 2], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>[15, [3, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>[1, 27]</t>
+          <t>[19, [0, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>[0, 28]</t>
+          <t>[9, [2, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>[27, 1]</t>
+          <t>[11, [1, 5], [2, 5]]</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>[28, 0]</t>
+          <t>[17, [2, 5], [3, 5]]</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>[1, 27]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [0, 0], [1, 2], [1, 0], [1, 5], [0, 5], [3, 0], [3, 1], [2, 3], [2, 5], [3, 3], [4, 3], [5, 4], [3, 2], [3, 4], [3, 5], [4, 4], [4, 0], [4, 1], [1, 4], [2, 4], [2, 1], [1, 3], [2, 0], [0, 3], [0, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>[0, 28]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B891" t="n">
-        <v>0.01081221395956481</v>
+          <t>[4, 1]</t>
+        </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B892" t="n">
-        <v>369552.2165609559</v>
+          <t>[5, 0]</t>
+        </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>move_fidelity</t>
-        </is>
-      </c>
-      <c r="B893" t="n">
-        <v>0.9916343421453592</v>
+          <t>[7, 21]</t>
+        </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Movement times</t>
-        </is>
-      </c>
-      <c r="B894" t="n">
-        <v>132</v>
+          <t>[6, 22]</t>
+        </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>parallel times</t>
-        </is>
-      </c>
-      <c r="B895" t="n">
-        <v>739</v>
+          <t>[3, 2]</t>
+        </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>partitions</t>
-        </is>
-      </c>
-      <c r="B896" t="n">
-        <v>12</v>
+          <t>[4, 1]</t>
+        </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>total time:</t>
-        </is>
-      </c>
-      <c r="B897" t="n">
-        <v>0.212745189666748</v>
+          <t>[5, 0]</t>
+        </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
+          <t>[22, 6]</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>[3, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>[4, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>[6, 22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>[5, 23]</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>[3, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>[4, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>[23, 5]</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>[2, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>[3, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>[5, 23]</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>[4, 24]</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>[2, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>[3, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>[24, 4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>[2, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>[4, 24]</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>[3, 25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>[2, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>[25, 3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>[1, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>[3, 25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>[2, 26]</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>[1, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>[26, 2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>[2, 26]</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>[1, 27]</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>[0, 28]</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>[27, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>[28, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>[1, 27]</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>[0, 28]</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>Fidelity:</t>
+        </is>
+      </c>
+      <c r="B930" t="n">
+        <v>0.01081058360063186</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>t_idle:</t>
+        </is>
+      </c>
+      <c r="B931" t="n">
+        <v>369778.4165609559</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>move_fidelity</t>
+        </is>
+      </c>
+      <c r="B932" t="n">
+        <v>0.9916343421453592</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>Movement times</t>
+        </is>
+      </c>
+      <c r="B933" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>parallel times</t>
+        </is>
+      </c>
+      <c r="B934" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B935" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B936" t="n">
+        <v>0.1793768405914307</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B898" t="inlineStr">
+      <c r="B937" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C898" t="inlineStr">
+      <c r="C937" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D898" t="inlineStr">
+      <c r="D937" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E898" t="inlineStr">
+      <c r="E937" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F898" t="inlineStr">
+      <c r="F937" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G898" t="inlineStr">
+      <c r="G937" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
+      <c r="H937" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I898" t="inlineStr">
+      <c r="I937" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J898" t="inlineStr">
+      <c r="J937" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K898" t="inlineStr">
+      <c r="K937" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L898" t="inlineStr">
+      <c r="L937" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M898" t="inlineStr">
+      <c r="M937" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N898" t="inlineStr">
+      <c r="N937" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
